--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3100.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3100.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.662030299094663</v>
+        <v>1.241344451904297</v>
       </c>
       <c r="B1">
-        <v>2.34849605901849</v>
+        <v>2.356509923934937</v>
       </c>
       <c r="C1">
-        <v>2.58707932342911</v>
+        <v>3.712232351303101</v>
       </c>
       <c r="D1">
-        <v>3.089549107491123</v>
+        <v>3.422984838485718</v>
       </c>
       <c r="E1">
-        <v>3.620347585774336</v>
+        <v>1.203454256057739</v>
       </c>
     </row>
   </sheetData>
